--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43019,6 +43019,41 @@
         <v>309900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>22800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43054,6 +43054,41 @@
         <v>22800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>282800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43089,6 +43089,41 @@
         <v>282800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>51300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43124,6 +43124,41 @@
         <v>51300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>27200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43159,6 +43159,41 @@
         <v>27200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>232100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43194,6 +43194,41 @@
         <v>232100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43229,6 +43229,41 @@
         <v>44000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>144400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43264,6 +43264,41 @@
         <v>144400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>21600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43299,6 +43299,41 @@
         <v>21600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>42200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43334,6 +43334,41 @@
         <v>42200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>292100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43369,6 +43369,41 @@
         <v>292100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>159100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43404,6 +43404,41 @@
         <v>159100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>61200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43439,6 +43439,76 @@
         <v>61200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>201900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>277600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43509,6 +43509,76 @@
         <v>277600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>374900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>338200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43579,6 +43579,41 @@
         <v>338200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>185800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43614,6 +43614,41 @@
         <v>185800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>622900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43649,6 +43649,41 @@
         <v>622900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>431200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43684,6 +43684,41 @@
         <v>431200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>666600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43719,6 +43719,76 @@
         <v>666600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>818900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>896100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43789,6 +43789,41 @@
         <v>896100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1034300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43824,6 +43824,41 @@
         <v>1034300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>399200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2693"/>
+  <dimension ref="A1:I2694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94679,6 +94679,41 @@
         <v>399200</v>
       </c>
     </row>
+    <row r="2694">
+      <c r="A2694" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2694" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2694" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2694" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2694" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2694" t="n">
+        <v>1361400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2694"/>
+  <dimension ref="A1:I2695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94714,6 +94714,41 @@
         <v>1361400</v>
       </c>
     </row>
+    <row r="2695">
+      <c r="A2695" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2695" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2695" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2695" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2695" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2695" t="n">
+        <v>366500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2695"/>
+  <dimension ref="A1:I2696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94749,6 +94749,41 @@
         <v>366500</v>
       </c>
     </row>
+    <row r="2696">
+      <c r="A2696" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2696" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2696" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2696" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2696" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2696" t="n">
+        <v>1540800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2696"/>
+  <dimension ref="A1:I2697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94784,6 +94784,41 @@
         <v>1540800</v>
       </c>
     </row>
+    <row r="2697">
+      <c r="A2697" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2697" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2697" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2697" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2697" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2697" t="n">
+        <v>347400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2697"/>
+  <dimension ref="A1:I2698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94819,6 +94819,41 @@
         <v>347400</v>
       </c>
     </row>
+    <row r="2698">
+      <c r="A2698" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2698" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2698" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2698" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2698" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2698" t="n">
+        <v>666500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2698"/>
+  <dimension ref="A1:I2699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94854,6 +94854,41 @@
         <v>666500</v>
       </c>
     </row>
+    <row r="2699">
+      <c r="A2699" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2699" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2699" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2699" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2699" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2699" t="n">
+        <v>737200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2699"/>
+  <dimension ref="A1:I2700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94889,6 +94889,41 @@
         <v>737200</v>
       </c>
     </row>
+    <row r="2700">
+      <c r="A2700" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2700" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2700" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2700" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2700" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2700" t="n">
+        <v>370100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2700"/>
+  <dimension ref="A1:I2701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94924,6 +94924,41 @@
         <v>370100</v>
       </c>
     </row>
+    <row r="2701">
+      <c r="A2701" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2701" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2701" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2701" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2701" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2701" t="n">
+        <v>895200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2701"/>
+  <dimension ref="A1:I2702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94959,6 +94959,41 @@
         <v>895200</v>
       </c>
     </row>
+    <row r="2702">
+      <c r="A2702" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2702" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2702" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2702" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2702" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2702" t="n">
+        <v>855100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2702"/>
+  <dimension ref="A1:I2703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94994,6 +94994,41 @@
         <v>855100</v>
       </c>
     </row>
+    <row r="2703">
+      <c r="A2703" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2703" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2703" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2703" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2703" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2703" t="n">
+        <v>745000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2703"/>
+  <dimension ref="A1:I2704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95029,6 +95029,41 @@
         <v>745000</v>
       </c>
     </row>
+    <row r="2704">
+      <c r="A2704" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2704" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2704" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2704" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2704" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2704" t="n">
+        <v>484000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2704"/>
+  <dimension ref="A1:I2705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95064,6 +95064,41 @@
         <v>484000</v>
       </c>
     </row>
+    <row r="2705">
+      <c r="A2705" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2705" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2705" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2705" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2705" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2705" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2705" t="n">
+        <v>123000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2705"/>
+  <dimension ref="A1:I2706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95099,6 +95099,41 @@
         <v>123000</v>
       </c>
     </row>
+    <row r="2706">
+      <c r="A2706" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2706" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2706" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2706" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2706" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2706" t="n">
+        <v>344000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2706"/>
+  <dimension ref="A1:I2707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95134,6 +95134,41 @@
         <v>344000</v>
       </c>
     </row>
+    <row r="2707">
+      <c r="A2707" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2707" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2707" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2707" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2707" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2707" t="n">
+        <v>156200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5112.xlsx
+++ b/data/5112.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2707"/>
+  <dimension ref="A1:I2708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95169,6 +95169,41 @@
         <v>156200</v>
       </c>
     </row>
+    <row r="2708">
+      <c r="A2708" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>THPLANT</t>
+        </is>
+      </c>
+      <c r="E2708" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2708" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2708" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2708" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2708" t="n">
+        <v>96000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
